--- a/실무_엑셀_예제_파일/Chapter05/05-006.xlsx
+++ b/실무_엑셀_예제_파일/Chapter05/05-006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csson\Documents\00. 진행\엑셀\예제 파일\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B3788-2D12-4038-8A3F-87F48FF72981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51259F9-E9D3-4B4A-B434-CCCB3E1CCE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="915" windowWidth="22935" windowHeight="13515" xr2:uid="{D3AFBC96-0D8A-4B79-B5D5-C9AB1BC56F2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D3AFBC96-0D8A-4B79-B5D5-C9AB1BC56F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="리마트매출" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,12 +833,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,9 +840,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1173,30 +1164,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FF2CAC-3A4A-4DA2-A46D-99B1174F552E}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1"/>
     <col min="6" max="6" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1214,279 +1203,279 @@
       <c r="H1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3">
-        <v>42111</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>42022</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7">
-        <v>288200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I2" s="5">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3">
-        <v>42073</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>42029</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="7">
-        <v>805100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>61100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B4" s="3">
-        <v>42178</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>42073</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I4" s="5">
+        <v>805100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3">
-        <v>42187</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>82</v>
+        <v>42111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1053300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43097</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>288200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42117</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>24600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="8">
+        <v>82700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B7" s="3">
-        <v>43058</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>42178</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="7">
-        <v>53700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3">
-        <v>42763</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>42187</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="8">
-        <v>42767</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1053300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42235</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="11">
-        <v>997900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3">
-        <v>42845</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>117</v>
+        <v>42417</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I10" s="5">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="3">
         <v>43178</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1504,18 +1493,18 @@
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>126400</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B12" s="3">
         <v>43277</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1533,18 +1522,18 @@
       <c r="H12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>1876800</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B13" s="3">
         <v>43803</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1562,18 +1551,18 @@
       <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>1002600</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B14" s="3">
         <v>44099</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1591,18 +1580,18 @@
       <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>17100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B15" s="3">
         <v>43926</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1620,18 +1609,18 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>448800</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B16" s="3">
         <v>43904</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1649,18 +1638,18 @@
       <c r="H16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>75700</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B17" s="3">
         <v>44174</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1678,18 +1667,18 @@
       <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B18" s="3">
         <v>43973</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1707,134 +1696,134 @@
       <c r="H18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>732500</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="3">
-        <v>42029</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="6">
+        <v>42427</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="8">
+        <v>124700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B20" s="3">
-        <v>42417</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>138</v>
+        <v>42478</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="8">
-        <v>42640</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="11">
-        <v>234800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I20" s="5">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42506</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="5">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B22" s="3">
-        <v>43069</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>108</v>
+        <v>42541</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="7">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1207300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B23" s="3">
         <v>43232</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1852,18 +1841,18 @@
       <c r="H23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B24" s="3">
         <v>43317</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1881,18 +1870,18 @@
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <v>66400</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B25" s="3">
         <v>43148</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1910,18 +1899,18 @@
       <c r="H25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <v>78500</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B26" s="3">
         <v>43405</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1939,18 +1928,18 @@
       <c r="H26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>1149100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B27" s="3">
         <v>43168</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1968,18 +1957,18 @@
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>12800</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="3">
         <v>43728</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1997,18 +1986,18 @@
       <c r="H28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <v>99600</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B29" s="3">
         <v>43642</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2026,18 +2015,18 @@
       <c r="H29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="5">
         <v>3391800</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B30" s="3">
         <v>43772</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2055,18 +2044,18 @@
       <c r="H30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="5">
         <v>10600</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B31" s="3">
         <v>43808</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2084,18 +2073,18 @@
       <c r="H31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>136600</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B32" s="3">
         <v>43768</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2113,18 +2102,18 @@
       <c r="H32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B33" s="3">
         <v>43659</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2142,18 +2131,18 @@
       <c r="H33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="5">
         <v>94900</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B34" s="3">
         <v>43661</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2171,18 +2160,18 @@
       <c r="H34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <v>7500</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B35" s="3">
         <v>44054</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2200,18 +2189,18 @@
       <c r="H35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="5">
         <v>17300</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B36" s="3">
         <v>42630</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2229,192 +2218,192 @@
       <c r="H36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="5">
         <v>32400</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="3">
-        <v>42541</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1207300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="6">
+        <v>42640</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="8">
+        <v>234800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B38" s="3">
-        <v>42478</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>82</v>
+        <v>42678</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="7">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" s="8">
-        <v>42427</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="5">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="3">
+        <v>42693</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="11">
-        <v>124700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="5">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B40" s="3">
-        <v>43033</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>110</v>
+        <v>42739</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="7">
-        <v>585600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I40" s="5">
+        <v>233300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B41" s="3">
-        <v>42739</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>134</v>
+        <v>42763</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="7">
-        <v>233300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42" s="3">
-        <v>42914</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="7">
-        <v>408300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I41" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="6">
+        <v>42767</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="8">
+        <v>997900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B43" s="3">
         <v>43180</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2432,18 +2421,18 @@
       <c r="H43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="5">
         <v>161900</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B44" s="3">
         <v>43131</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2461,18 +2450,18 @@
       <c r="H44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="5">
         <v>85700</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B45" s="3">
         <v>43368</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2490,18 +2479,18 @@
       <c r="H45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="5">
         <v>105200</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B46" s="3">
         <v>43651</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2519,18 +2508,18 @@
       <c r="H46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="5">
         <v>50600</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B47" s="3">
         <v>43958</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2548,18 +2537,18 @@
       <c r="H47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="5">
         <v>19200</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B48" s="3">
         <v>43950</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2577,18 +2566,18 @@
       <c r="H48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="5">
         <v>233200</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B49" s="3">
         <v>43892</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -2606,279 +2595,279 @@
       <c r="H49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <v>49500</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B50" s="3">
-        <v>42022</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>137</v>
+        <v>42768</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1132900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42845</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="7">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="3">
-        <v>42235</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="5">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="3">
+        <v>42898</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="7">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="8">
-        <v>42117</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="H52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="5">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="3">
+        <v>42914</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="5">
+        <v>408300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="3">
+        <v>42926</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="11">
-        <v>82700</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="3">
-        <v>42693</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="5">
+        <v>229400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="3">
+        <v>43033</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="7">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="3">
-        <v>42506</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="5">
+        <v>585600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="3">
+        <v>43058</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="7">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" s="3">
-        <v>42678</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="H56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="5">
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43069</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55" s="7">
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B56" s="3">
-        <v>42768</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="7">
-        <v>1132900</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57" s="3">
-        <v>42926</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="3">
+        <v>43097</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="7">
-        <v>229400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="3">
-        <v>42898</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="7">
-        <v>35600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I58" s="5">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B59" s="3">
         <v>43582</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2896,18 +2885,18 @@
       <c r="H59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="5">
         <v>351400</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B60" s="3">
         <v>43729</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2925,18 +2914,18 @@
       <c r="H60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="5">
         <v>16000</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B61" s="3">
         <v>43539</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2954,18 +2943,18 @@
       <c r="H61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="5">
         <v>33000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B62" s="3">
         <v>43770</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -2983,18 +2972,18 @@
       <c r="H62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="5">
         <v>53300</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B63" s="3">
         <v>44133</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3012,18 +3001,18 @@
       <c r="H63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="5">
         <v>1800</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B64" s="3">
         <v>44031</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3041,23 +3030,23 @@
       <c r="H64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="5">
         <v>15400</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F77"/>
     </row>
   </sheetData>
